--- a/doc/dict.xlsx
+++ b/doc/dict.xlsx
@@ -1,334 +1,435 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cchu/IdeaProjects/erpTest/doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F13E3F2-FE33-9441-A648-8598C4F0F187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="33180" windowHeight="19100" xr2:uid="{005B6749-FB9F-BB40-99DA-CD5A46BB4CE1}"/>
+    <workbookView windowWidth="32460" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+  <si>
+    <t>dictKey</t>
+  </si>
+  <si>
+    <t>dictValue</t>
+  </si>
+  <si>
+    <t>🍏</t>
+  </si>
+  <si>
+    <t>🍎</t>
+  </si>
+  <si>
+    <t>🍐</t>
+  </si>
+  <si>
+    <t>🍊</t>
+  </si>
+  <si>
+    <t>🍋</t>
+  </si>
+  <si>
+    <t>🍌</t>
+  </si>
+  <si>
+    <t>🍉</t>
+  </si>
+  <si>
+    <t>🍓</t>
+  </si>
+  <si>
+    <t>🍈</t>
+  </si>
+  <si>
+    <t>🍒</t>
+  </si>
   <si>
     <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🍑</t>
   </si>
   <si>
     <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🥭</t>
   </si>
   <si>
     <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🍍</t>
   </si>
   <si>
     <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🥥</t>
   </si>
   <si>
     <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🥝</t>
   </si>
   <si>
     <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🍅</t>
   </si>
   <si>
     <t>g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🥑</t>
   </si>
   <si>
     <t>h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🍆</t>
   </si>
   <si>
     <t>i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🌶</t>
   </si>
   <si>
     <t>j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🥒</t>
   </si>
   <si>
     <t>k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🥬</t>
   </si>
   <si>
     <t>l</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🥦</t>
   </si>
   <si>
     <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🧄</t>
   </si>
   <si>
     <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🌽</t>
   </si>
   <si>
     <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🧅</t>
   </si>
   <si>
     <t>p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🥕</t>
   </si>
   <si>
     <t>q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🥗</t>
   </si>
   <si>
     <t>r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🥔</t>
   </si>
   <si>
     <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🥜</t>
   </si>
   <si>
     <t>t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🍯</t>
   </si>
   <si>
     <t>u</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🍞</t>
   </si>
   <si>
     <t>v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🥐</t>
   </si>
   <si>
     <t>w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🥖</t>
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🥨</t>
   </si>
   <si>
     <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🥯</t>
   </si>
   <si>
     <t>z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>🍏</t>
-  </si>
-  <si>
-    <t>🍎</t>
-  </si>
-  <si>
-    <t>🍐</t>
-  </si>
-  <si>
-    <t>🍊</t>
-  </si>
-  <si>
-    <t>🍋</t>
-  </si>
-  <si>
-    <t>🍌</t>
-  </si>
-  <si>
-    <t>🍉</t>
-  </si>
-  <si>
-    <t>🍓</t>
-  </si>
-  <si>
-    <t>🍈</t>
-  </si>
-  <si>
-    <t>🍒</t>
-  </si>
-  <si>
-    <t>🍑</t>
-  </si>
-  <si>
-    <t>🥭</t>
-  </si>
-  <si>
-    <t>🍍</t>
-  </si>
-  <si>
-    <t>🥥</t>
-  </si>
-  <si>
-    <t>🥝</t>
-  </si>
-  <si>
-    <t>🍅</t>
-  </si>
-  <si>
-    <t>🥑</t>
-  </si>
-  <si>
-    <t>🍆</t>
-  </si>
-  <si>
-    <t>🌶</t>
-  </si>
-  <si>
-    <t>🥒</t>
-  </si>
-  <si>
-    <t>🥬</t>
-  </si>
-  <si>
-    <t>🥦</t>
-  </si>
-  <si>
-    <t>🧄</t>
-  </si>
-  <si>
-    <t>🌽</t>
-  </si>
-  <si>
-    <t>🧅</t>
-  </si>
-  <si>
-    <t>🥕</t>
-  </si>
-  <si>
-    <t>🥗</t>
-  </si>
-  <si>
-    <t>🥔</t>
-  </si>
-  <si>
-    <t>🥜</t>
-  </si>
-  <si>
-    <t>🍯</t>
-  </si>
-  <si>
-    <t>🍞</t>
-  </si>
-  <si>
-    <t>🥐</t>
-  </si>
-  <si>
-    <t>🥖</t>
-  </si>
-  <si>
-    <t>🥨</t>
-  </si>
-  <si>
-    <t>🥯</t>
   </si>
   <si>
     <t>🧇</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>😀</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>😃</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>😄</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>😁</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>😆</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>🥹</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>😅</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>😂</t>
+  </si>
+  <si>
+    <t>……</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>🤣</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>🥲</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>😊</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>😇</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>🙂</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>🙃</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>😉</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>😌</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>😍</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>🥰</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>😘</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>😗</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>😙</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>😚</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>😋</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>😛</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>😝</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>😜</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🍬</t>
   </si>
   <si>
     <t>,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🍫</t>
   </si>
   <si>
     <t>.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🍿</t>
   </si>
   <si>
     <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🍩</t>
   </si>
   <si>
     <t>\</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🍪</t>
   </si>
   <si>
     <t>=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🥮</t>
   </si>
   <si>
     <t>，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🥠</t>
   </si>
   <si>
     <t>。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>🍬</t>
-  </si>
-  <si>
-    <t>🍫</t>
-  </si>
-  <si>
-    <t>🍿</t>
-  </si>
-  <si>
-    <t>🍩</t>
-  </si>
-  <si>
-    <t>🍪</t>
-  </si>
-  <si>
-    <t>🥮</t>
-  </si>
-  <si>
-    <t>🥠</t>
   </si>
   <si>
     <t>🍵</t>
-  </si>
-  <si>
-    <t>dictKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dictValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -336,19 +437,355 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -356,9 +793,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -366,21 +1045,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -429,7 +1152,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -462,26 +1185,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -514,23 +1220,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -672,31 +1361,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A473368-D687-9445-BFF7-25765B64E4BA}">
-  <dimension ref="A1:B47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -704,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -712,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -720,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -728,7 +1412,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -736,7 +1420,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -744,7 +1428,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -752,7 +1436,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -760,7 +1444,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -768,7 +1452,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -776,196 +1460,196 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
         <v>59</v>
@@ -973,63 +1657,63 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
         <v>75</v>
@@ -1037,25 +1721,236 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="18">
-      <c r="B47" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="G45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>